--- a/Time Log.xlsx
+++ b/Time Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickbrowen\Documents\GitHub\SeniorProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BED6A71E-02E6-4C72-ACC7-7C2384B2E329}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8DD4AFE0-063F-4A8C-BAF3-284B3CE328C8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4130" xr2:uid="{38D714CD-DE5F-44FF-9BD4-A91D79505D61}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -37,6 +37,21 @@
   </si>
   <si>
     <t>Time Worked</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Learning dplyr</t>
+  </si>
+  <si>
+    <t>Learning tidytext</t>
+  </si>
+  <si>
+    <t>Learning dplyr/ tidytext</t>
   </si>
 </sst>
 </file>
@@ -75,11 +90,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C1BFE6-A087-4A70-8C2B-05BD5EA94BB3}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -405,9 +423,10 @@
     <col min="1" max="1" width="11.54296875" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.54296875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -420,101 +439,221 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>43453</v>
+        <v>43430</v>
       </c>
       <c r="B2" s="1">
-        <v>0.45347222222222222</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="C2" s="1">
-        <v>0.4770833333333333</v>
+        <v>0.625</v>
       </c>
       <c r="D2" s="3">
         <f>C2-B2</f>
-        <v>2.3611111111111083E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D3" s="3" t="str">
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>43454</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="D3" s="3">
         <f>IF(OR(ISBLANK(B3),ISBLANK(C3)), "", C3-B3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D4" s="3" t="str">
+        <v>5.5555555555555469E-2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>43455</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="D4" s="3">
         <f t="shared" ref="D4:D67" si="0">IF(OR(ISBLANK(B4),ISBLANK(C4)), "", C4-B4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>43458</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="D5" s="3">
+        <f>IF(OR(ISBLANK(B5),ISBLANK(C5)), "", C5-B5)</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>43460</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>43462</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>43463</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>4.8611111111111049E-2</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>43469</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.71875</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>43472</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>

--- a/Time Log.xlsx
+++ b/Time Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickbrowen\Documents\GitHub\SeniorProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8DD4AFE0-063F-4A8C-BAF3-284B3CE328C8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2A5B281A-F507-4B7B-9086-6BD1825983B6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4130" xr2:uid="{38D714CD-DE5F-44FF-9BD4-A91D79505D61}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -51,7 +51,10 @@
     <t>Learning tidytext</t>
   </si>
   <si>
-    <t>Learning dplyr/ tidytext</t>
+    <t>Getting the data</t>
+  </si>
+  <si>
+    <t>Data cleaning</t>
   </si>
 </sst>
 </file>
@@ -415,7 +418,7 @@
   <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,7 +479,7 @@
         <v>5.5555555555555469E-2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -629,127 +632,203 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A12" s="2">
+        <v>43472</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="3"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A13" s="2">
+        <v>43473</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A14" s="2">
+        <v>43473</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A15" s="2">
+        <v>43473</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>5.902777777777779E-2</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>43474</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>43474</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>

--- a/Time Log.xlsx
+++ b/Time Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickbrowen\Documents\GitHub\SeniorProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2A5B281A-F507-4B7B-9086-6BD1825983B6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{00DC92AB-1BF8-46F0-8CC2-76B90D1685FE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4130" xr2:uid="{38D714CD-DE5F-44FF-9BD4-A91D79505D61}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -417,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C1BFE6-A087-4A70-8C2B-05BD5EA94BB3}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -726,7 +726,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>43474</v>
       </c>
@@ -744,91 +744,195 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>43475</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444475E-2</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>43475</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>43478</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.71875</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>43479</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>43480</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11805555555555547</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>43481</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>43482</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>43484</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>8.680555555555558E-2</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>43486</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.67361111111111116</v>
+      </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>

--- a/Time Log.xlsx
+++ b/Time Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickbrowen\Documents\GitHub\SeniorProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{00DC92AB-1BF8-46F0-8CC2-76B90D1685FE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6AB7AA4B-5DFB-4551-8F85-74A4CC07A665}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4130" xr2:uid="{38D714CD-DE5F-44FF-9BD4-A91D79505D61}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>Data cleaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing EC2 possibility </t>
+  </si>
+  <si>
+    <t>EDA</t>
+  </si>
+  <si>
+    <t>Reading Linvill, Warren paper</t>
+  </si>
+  <si>
+    <t>Data cleaning (emojis)</t>
   </si>
 </sst>
 </file>
@@ -417,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C1BFE6-A087-4A70-8C2B-05BD5EA94BB3}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -427,6 +439,7 @@
     <col min="2" max="3" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.54296875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -481,6 +494,7 @@
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
@@ -726,7 +740,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>43474</v>
       </c>
@@ -744,7 +758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>43475</v>
       </c>
@@ -762,7 +776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>43475</v>
       </c>
@@ -781,7 +795,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>43478</v>
       </c>
@@ -799,7 +813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>43479</v>
       </c>
@@ -817,7 +831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>43480</v>
       </c>
@@ -835,7 +849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>43481</v>
       </c>
@@ -854,7 +868,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>43482</v>
       </c>
@@ -872,7 +886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>43484</v>
       </c>
@@ -890,145 +904,263 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>43486</v>
       </c>
       <c r="B26" s="1">
         <v>0.67361111111111116</v>
       </c>
-      <c r="D26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D34" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D35" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="C26" s="1">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>43489</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>43491</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>43492</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>43493</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>43494</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>43494</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="0"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>43495</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>43496</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="0"/>
+        <v>6.5972222222222265E-2</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>43501</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D36" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D37" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D38" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D39" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D40" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D41" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D42" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D43" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D44" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D45" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D46" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D47" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D48" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>

--- a/Time Log.xlsx
+++ b/Time Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickbrowen\Documents\GitHub\SeniorProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6AB7AA4B-5DFB-4551-8F85-74A4CC07A665}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8951B570-D8F6-428E-B72B-D308C1707133}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4130" xr2:uid="{38D714CD-DE5F-44FF-9BD4-A91D79505D61}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -430,7 +430,7 @@
   <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1089,9 +1089,21 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D36" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A36" s="2">
+        <v>43501</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="0"/>
+        <v>7.2916666666666741E-2</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">

--- a/Time Log.xlsx
+++ b/Time Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickbrowen\Documents\GitHub\SeniorProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8951B570-D8F6-428E-B72B-D308C1707133}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FC0E751C-4351-40F8-A224-5DFD143E4A4E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4130" xr2:uid="{38D714CD-DE5F-44FF-9BD4-A91D79505D61}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C1BFE6-A087-4A70-8C2B-05BD5EA94BB3}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1034,7 +1034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>43495</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>43496</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>43501</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>43501</v>
       </c>
@@ -1105,74 +1105,124 @@
       <c r="E36" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D37" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D38" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D39" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D40" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>43502</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555469E-2</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>43503</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>43503</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>43503</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D41" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D42" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D43" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D44" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D45" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D46" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D47" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D48" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>

--- a/Time Log.xlsx
+++ b/Time Log.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickbrowen\Documents\GitHub\SeniorProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FC0E751C-4351-40F8-A224-5DFD143E4A4E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5FB275-6C87-4F3F-8445-1D88FA058D6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4130" xr2:uid="{38D714CD-DE5F-44FF-9BD4-A91D79505D61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -67,6 +72,12 @@
   </si>
   <si>
     <t>Data cleaning (emojis)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentiment Analysis </t>
+  </si>
+  <si>
+    <t>Git issues</t>
   </si>
 </sst>
 </file>
@@ -430,7 +441,7 @@
   <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1181,33 +1192,93 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D41" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A41" s="2">
+        <v>43508</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="0"/>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D42" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A42" s="2">
+        <v>43508</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D43" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A43" s="2">
+        <v>43510</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D44" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A44" s="2">
+        <v>43510</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.53125</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="0"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D45" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A45" s="2">
+        <v>43510</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">

--- a/Time Log.xlsx
+++ b/Time Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickbrowen\Documents\GitHub\SeniorProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5FB275-6C87-4F3F-8445-1D88FA058D6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD5EA22-266A-4414-89B2-FF1364ACBF27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4130" xr2:uid="{38D714CD-DE5F-44FF-9BD4-A91D79505D61}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C1BFE6-A087-4A70-8C2B-05BD5EA94BB3}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1282,10 +1282,23 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D46" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A46" s="2">
+        <v>43516</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D47" s="3" t="str">

--- a/Time Log.xlsx
+++ b/Time Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickbrowen\Documents\GitHub\SeniorProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD5EA22-266A-4414-89B2-FF1364ACBF27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFD85CB-441F-44B5-8707-F687F546EDD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4130" xr2:uid="{38D714CD-DE5F-44FF-9BD4-A91D79505D61}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>Git issues</t>
+  </si>
+  <si>
+    <t>Author Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author Analysis </t>
   </si>
 </sst>
 </file>
@@ -440,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C1BFE6-A087-4A70-8C2B-05BD5EA94BB3}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1301,108 +1307,205 @@
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D47" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A47" s="2">
+        <v>43517</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" si="0"/>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D48" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D49" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D50" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D51" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D52" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D53" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D54" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>43517</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D48" s="3">
+        <f t="shared" si="0"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>43523</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="D49" s="3">
+        <f>IF(OR(ISBLANK(B49),ISBLANK(C49)), "", C49-B49)</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>43524</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>43524</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="0"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>43525</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
+        <v>43526</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
+        <v>43528</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D55" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D56" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D57" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D58" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D59" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D60" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D61" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D62" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D63" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D64" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>

--- a/Time Log.xlsx
+++ b/Time Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickbrowen\Documents\GitHub\SeniorProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFD85CB-441F-44B5-8707-F687F546EDD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5B13A0-DA08-4649-B11F-7F98EAC244FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4130" xr2:uid="{38D714CD-DE5F-44FF-9BD4-A91D79505D61}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C1BFE6-A087-4A70-8C2B-05BD5EA94BB3}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1343,7 +1343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>43523</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>43524</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>43524</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>43525</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>43526</v>
       </c>
@@ -1432,8 +1432,9 @@
       <c r="E53" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>43528</v>
       </c>
@@ -1451,61 +1452,97 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D55" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D56" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D57" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>43529</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
+        <v>43529</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="D56" s="3">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>43530</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="D57" s="3">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D58" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D59" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D60" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D61" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D62" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D63" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D64" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
